--- a/合同/供销合同/蔡金荣-钢材供销合同 20210112.xlsx
+++ b/合同/供销合同/蔡金荣-钢材供销合同 20210112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="64">
   <si>
     <t>钢 材 供 销 合 同</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>900型</t>
+  </si>
+  <si>
+    <t>退货卷数</t>
+  </si>
+  <si>
+    <t>应退金额</t>
   </si>
   <si>
     <t>保温棉</t>
@@ -207,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -277,21 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,17 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,9 +312,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +374,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -355,63 +405,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -421,7 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +451,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,61 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,55 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,6 +743,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -755,21 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -789,30 +825,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,137 +845,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1065,9 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,6 +1152,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1492,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1510,7 +1530,8 @@
     <col min="9" max="9" width="12.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.125" style="2" customWidth="1"/>
     <col min="11" max="12" width="11.625" style="2"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="13" width="9.375" style="2"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:10">
@@ -3061,7 +3082,7 @@
         <v>3.542</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:10">
+    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:13">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="15">
@@ -3090,10 +3111,16 @@
         <f t="shared" si="7"/>
         <v>3.465</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:10">
+      <c r="L55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:13">
       <c r="A56" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="15">
@@ -3106,7 +3133,7 @@
         <v>63</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G56" s="15">
         <v>2.75</v>
@@ -3122,10 +3149,17 @@
         <f t="shared" si="7"/>
         <v>4158</v>
       </c>
+      <c r="L56" s="30">
+        <v>24</v>
+      </c>
+      <c r="M56" s="30">
+        <f>I56*L56</f>
+        <v>1584</v>
+      </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:10">
       <c r="A57" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B57" s="25">
         <v>4.5</v>
@@ -3136,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="19"/>
@@ -3147,26 +3181,26 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:10">
       <c r="A58" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="15">
         <v>250</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E58" s="17">
         <v>1</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G58" s="15">
         <v>1.35</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I58" s="29">
         <f>C58*G58</f>
@@ -3179,7 +3213,7 @@
     </row>
     <row r="59" s="2" customFormat="1" spans="1:10">
       <c r="A59" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="15">
@@ -3226,7 +3260,7 @@
     <row r="62" s="2" customFormat="1" spans="1:10">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="20"/>
@@ -3241,7 +3275,7 @@
     </row>
     <row r="63" s="2" customFormat="1" spans="1:10">
       <c r="A63" s="26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="15">
@@ -3286,9 +3320,9 @@
       <c r="J65" s="29"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:10">
-      <c r="A66" s="30"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="20"/>
@@ -3302,352 +3336,352 @@
       </c>
     </row>
     <row r="67" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A67" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31">
+      <c r="A67" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32">
         <f>SUM(J6:J66)</f>
         <v>21946.977</v>
       </c>
     </row>
     <row r="68" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A68" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33">
+      <c r="A68" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34">
         <f>J67</f>
         <v>21946.977</v>
       </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="43" customHeight="1" spans="1:10">
-      <c r="A69" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="39"/>
+      <c r="A69" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="40"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="22" customHeight="1" spans="1:10">
-      <c r="A70" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="39"/>
+      <c r="A70" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="40"/>
     </row>
     <row r="71" ht="22" customHeight="1" spans="1:10">
-      <c r="A71" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="39"/>
+      <c r="A71" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="40"/>
     </row>
     <row r="72" ht="22" customHeight="1" spans="1:10">
-      <c r="A72" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="39"/>
+      <c r="A72" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="40"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="22" customHeight="1" spans="1:10">
-      <c r="A73" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="39"/>
+      <c r="A73" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="40"/>
     </row>
     <row r="74" ht="22" customHeight="1" spans="1:10">
-      <c r="A74" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="39"/>
+      <c r="A74" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="40"/>
     </row>
     <row r="75" ht="22" customHeight="1" spans="1:10">
-      <c r="A75" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="39"/>
+      <c r="A75" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="40"/>
     </row>
     <row r="76" ht="22" customHeight="1" spans="1:10">
-      <c r="A76" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="39"/>
+      <c r="A76" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="40"/>
     </row>
     <row r="77" ht="22" customHeight="1" spans="1:10">
-      <c r="A77" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="39"/>
+      <c r="A77" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="40"/>
     </row>
     <row r="78" ht="22" customHeight="1" spans="1:10">
-      <c r="A78" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="39"/>
+      <c r="A78" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="40"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="22" customHeight="1" spans="1:10">
-      <c r="A79" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="39"/>
+      <c r="A79" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="40"/>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:10">
-      <c r="A80" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
+      <c r="A80" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
     </row>
     <row r="81" ht="15" customHeight="1" spans="1:10">
-      <c r="A81" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
+      <c r="A81" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:10">
-      <c r="A82" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
+      <c r="A82" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:10">
-      <c r="A83" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
+      <c r="A83" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" ht="15" customHeight="1" spans="1:10">
-      <c r="A84" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
+      <c r="A84" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:10">
-      <c r="A85" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
+      <c r="A85" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:10">
-      <c r="A86" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
+      <c r="A86" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:10">
-      <c r="A87" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
+      <c r="A87" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:10">
-      <c r="A88" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
+      <c r="A88" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
     </row>
     <row r="89" ht="22" customHeight="1" spans="1:10">
-      <c r="A89" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
+      <c r="A89" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="49">
